--- a/Documentacion/Requerimientos Funcionales - react-tmdb-api.xlsx
+++ b/Documentacion/Requerimientos Funcionales - react-tmdb-api.xlsx
@@ -40,7 +40,7 @@
     <t>RF03</t>
   </si>
   <si>
-    <t>El sistema debe mostrar información detallada de una película al seleccionarla</t>
+    <t>El sistema no tiene pagina de login</t>
   </si>
   <si>
     <t>RF04</t>
